--- a/biology/Zoologie/Dipsas_sanctijoannis/Dipsas_sanctijoannis.xlsx
+++ b/biology/Zoologie/Dipsas_sanctijoannis/Dipsas_sanctijoannis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas sanctijoannis  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas sanctijoannis  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie[1]. Elle se rencontre dans les départements de Chocó, de Caldas, de Cauca, de Quindío et de Valle del Cauca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre dans les départements de Chocó, de Caldas, de Cauca, de Quindío et de Valle del Cauca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dipsas sanctijoannis[2] mesure 600 mm dont 140 mm pour la queue. Cette espèce a la tête brun foncé avec des vermiculations claires, quelques taches noires et une barre sur le front. Son dos est brun noirâtre avec des rayures ou des anneaux clairs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dipsas sanctijoannis mesure 600 mm dont 140 mm pour la queue. Cette espèce a la tête brun foncé avec des vermiculations claires, quelques taches noires et une barre sur le front. Son dos est brun noirâtre avec des rayures ou des anneaux clairs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, sanctijoannis, lui a été donné en référence au lieu de sa découverte, le río San Juan[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, sanctijoannis, lui a été donné en référence au lieu de sa découverte, le río San Juan.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1911 : Descriptions of new reptiles from the Andes of South America, preserved in the British Museum. Annals and Magazine of Natural History, sér. 8, vol. 7, no 37, p. 19-25 (texte intégral).</t>
         </is>
